--- a/doc/EXPERIMENTS/psotesting.xlsx
+++ b/doc/EXPERIMENTS/psotesting.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="inertia0" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="inertia1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="inertia8" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="inertia1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="52">
   <si>
     <t xml:space="preserve">dbox_rate</t>
   </si>
@@ -329,11 +330,11 @@
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F32" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
@@ -391,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2835</v>
+        <v>2714</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
@@ -403,7 +404,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3866</v>
+        <v>3963</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -418,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>2215</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2607</v>
+        <v>2712</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
@@ -447,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3672</v>
+        <v>3732</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -462,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>2170</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2475</v>
+        <v>2659</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
@@ -491,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>5101</v>
+        <v>5681</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -506,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2014</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3178</v>
+        <v>3283</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
@@ -535,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>2970</v>
+        <v>2898</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -550,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>2587</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2381</v>
+        <v>2559</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
@@ -579,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3919</v>
+        <v>4008</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -594,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>1993</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2589</v>
+        <v>2573</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1</v>
@@ -623,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>10673</v>
+        <v>11513</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
@@ -638,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>2072</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2152</v>
+        <v>2229</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
@@ -667,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1891</v>
+        <v>2215</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
@@ -682,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>1779</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2215</v>
+        <v>2273</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
@@ -711,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1912</v>
+        <v>2199</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -726,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>1812</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2213</v>
+        <v>2265</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
@@ -755,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1921</v>
+        <v>2035</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>20</v>
@@ -770,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>1805</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2198</v>
+        <v>2240</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
@@ -799,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1924</v>
+        <v>1978</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
@@ -814,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>1804</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2218</v>
+        <v>2237</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1</v>
@@ -843,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1939</v>
+        <v>1983</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
@@ -858,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>1820</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2235</v>
+        <v>2310</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>1</v>
@@ -887,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>2529</v>
+        <v>2858</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>23</v>
@@ -902,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>1845</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2210</v>
+        <v>2304</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>1</v>
@@ -931,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>2571</v>
+        <v>2747</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>24</v>
@@ -946,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>1814</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2181</v>
+        <v>2203</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>1</v>
@@ -975,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2502</v>
+        <v>2673</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
@@ -990,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>1773</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,10 +1005,10 @@
         <v>3952</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.9333</v>
+        <v>0.9667</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2311</v>
+        <v>2501</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>0.8667</v>
@@ -1016,10 +1017,10 @@
         <v>4958</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0.8667</v>
+        <v>0.8333</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>2660</v>
+        <v>2719</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>26</v>
@@ -1031,10 +1032,10 @@
         <v>3149</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0.8333</v>
+        <v>0.9667</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>1793</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2350</v>
+        <v>2595</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>1</v>
@@ -1063,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>2892</v>
+        <v>3061</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>27</v>
@@ -1078,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>1993</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>3560</v>
+        <v>3459</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>1</v>
@@ -1107,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>6272</v>
+        <v>6187</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>28</v>
@@ -1122,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>2794</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>3825</v>
+        <v>4517</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>1</v>
@@ -1151,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>13118</v>
+        <v>13136</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>29</v>
@@ -1166,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>2858</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2289</v>
+        <v>2376</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>1</v>
@@ -1195,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>2786</v>
+        <v>2795</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
@@ -1210,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>1892</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2891</v>
+        <v>3583</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>1</v>
@@ -1239,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>3558</v>
+        <v>4651</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>31</v>
@@ -1254,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>2697</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>5015</v>
+        <v>4944</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>1</v>
@@ -1283,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>16563</v>
+        <v>17879</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>32</v>
@@ -1298,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>4315</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>20671</v>
+        <v>20850</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>1</v>
@@ -1327,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>67121</v>
+        <v>78894</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>33</v>
@@ -1342,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>16551</v>
+        <v>16830</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10214</v>
+        <v>10582</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>1</v>
@@ -1371,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>40732</v>
+        <v>46065</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>34</v>
@@ -1386,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>8242</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>3296</v>
+        <v>3318</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>1</v>
@@ -1415,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>10009</v>
+        <v>10294</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>35</v>
@@ -1430,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>2660</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>5322</v>
+        <v>7874</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>1</v>
@@ -1459,7 +1460,7 @@
         <v>0.9667</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>6221</v>
+        <v>8336</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>36</v>
@@ -1474,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>3858</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,10 +1489,10 @@
         <v>29762</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>1</v>
+        <v>0.9333</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>4604</v>
+        <v>4229</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>1</v>
@@ -1500,10 +1501,10 @@
         <v>33522</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>0.9333</v>
+        <v>1</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>5802</v>
+        <v>4867</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>37</v>
@@ -1515,10 +1516,10 @@
         <v>21661</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>2647</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>3341</v>
+        <v>3493</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>1</v>
@@ -1544,10 +1545,10 @@
         <v>42476</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>0.9</v>
+        <v>0.9667</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>4746</v>
+        <v>5523</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>38</v>
@@ -1562,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>2764</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,10 +1577,10 @@
         <v>7337</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2986</v>
+        <v>2916</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>1</v>
@@ -1591,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>3664</v>
+        <v>4503</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>39</v>
@@ -1603,10 +1604,10 @@
         <v>6088</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>0.9333</v>
+        <v>1</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>2083</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2572</v>
+        <v>2790</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1</v>
@@ -1635,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>4338</v>
+        <v>4382</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>40</v>
@@ -1650,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>2064</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,10 +1665,10 @@
         <v>8056</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>3147</v>
+        <v>3013</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>1</v>
@@ -1676,10 +1677,10 @@
         <v>10105</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>3632</v>
+        <v>5425</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>41</v>
@@ -1691,10 +1692,10 @@
         <v>6300</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>2158</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,7 +1712,7 @@
         <v>0.9667</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>3238</v>
+        <v>3465</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>1</v>
@@ -1723,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>5673</v>
+        <v>6401</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>42</v>
@@ -1735,10 +1736,10 @@
         <v>5754</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>0.9667</v>
+        <v>0.9333</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>2701</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,10 +1753,10 @@
         <v>5199</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>0.8667</v>
+        <v>0.9667</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>3585</v>
+        <v>3238</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>0.9667</v>
@@ -1767,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>5662</v>
+        <v>5977</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>43</v>
@@ -1779,10 +1780,10 @@
         <v>4252</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>0.9333</v>
+        <v>0.9</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>2260</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,10 +1797,10 @@
         <v>9077</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.9</v>
+        <v>0.9333</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>3932</v>
+        <v>5255</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>1</v>
@@ -1808,10 +1809,10 @@
         <v>13953</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>0.9333</v>
+        <v>1</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>9515</v>
+        <v>8888</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>44</v>
@@ -1823,10 +1824,10 @@
         <v>7187</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0.7333</v>
+        <v>0.9</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>2828</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,10 +1841,10 @@
         <v>5649</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.7333</v>
+        <v>0.8667</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>3800</v>
+        <v>3686</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>0.9333</v>
@@ -1852,10 +1853,10 @@
         <v>9893</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>7469</v>
+        <v>8597</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>45</v>
@@ -1867,10 +1868,10 @@
         <v>4640</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0.9333</v>
+        <v>0.7667</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>2497</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>2710</v>
+        <v>2752</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>1</v>
@@ -1899,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>3585</v>
+        <v>3647</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>46</v>
@@ -1914,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>2272</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2900</v>
+        <v>2840</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>1</v>
@@ -1943,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>3632</v>
+        <v>3616</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>47</v>
@@ -1958,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>2321</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>3200</v>
+        <v>3175</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>1</v>
@@ -1987,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>4566</v>
+        <v>4214</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>48</v>
@@ -2002,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>2883</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>5384</v>
+        <v>4719</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>1</v>
@@ -2028,10 +2029,10 @@
         <v>16887</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>6702</v>
+        <v>6514</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>49</v>
@@ -2046,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>4785</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>4168</v>
+        <v>3906</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>1</v>
@@ -2075,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>3953</v>
+        <v>3929</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>50</v>
@@ -2090,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>2571</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>4472</v>
+        <v>4822</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>1</v>
@@ -2119,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>5176</v>
+        <v>4359</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>51</v>
@@ -2134,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>2957</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,11 +2149,11 @@
       </c>
       <c r="D42" s="5" t="n">
         <f aca="false">AVERAGE(D2:D41)</f>
-        <v>0.983335</v>
+        <v>0.990835</v>
       </c>
       <c r="E42" s="6" t="n">
         <f aca="false">SUM(E2:E41)</f>
-        <v>149470</v>
+        <v>155459</v>
       </c>
       <c r="F42" s="5" t="n">
         <f aca="false">AVERAGE(F2:F41)</f>
@@ -2164,11 +2165,11 @@
       </c>
       <c r="H42" s="5" t="n">
         <f aca="false">AVERAGE(H2:H41)</f>
-        <v>0.9866675</v>
+        <v>0.993335</v>
       </c>
       <c r="I42" s="6" t="n">
         <f aca="false">SUM(I2:I41)</f>
-        <v>297437</v>
+        <v>325342</v>
       </c>
       <c r="K42" s="5" t="n">
         <f aca="false">AVERAGE(K2:K41)</f>
@@ -2180,11 +2181,11 @@
       </c>
       <c r="M42" s="5" t="n">
         <f aca="false">AVERAGE(M2:M41)</f>
-        <v>0.9824975</v>
+        <v>0.985835</v>
       </c>
       <c r="N42" s="6" t="n">
         <f aca="false">SUM(N2:N41)</f>
-        <v>116947</v>
+        <v>122221</v>
       </c>
     </row>
   </sheetData>
@@ -2203,16 +2204,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G25" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J42" activeCellId="0" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,28 +2229,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2261,40 +2250,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>6603</v>
+        <v>6867</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1</v>
+        <v>0.9333</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2835</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>2549</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>3866</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>5253</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2177</v>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5536</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2379</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,40 +2282,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>6208</v>
+        <v>6157</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2607</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>2174</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>3672</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>4837</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>2096</v>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>4843</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,40 +2314,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4243</v>
+        <v>4596</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2475</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1439</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>5101</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>3438</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>2028</v>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>3703</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>2178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,40 +2346,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>8467</v>
+        <v>10105</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3178</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>9310</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>2970</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>4276</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>7050</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>2839</v>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>7847</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3731</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,40 +2378,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4590</v>
+        <v>5201</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2381</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2068</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>3919</v>
-      </c>
-      <c r="J6" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>3793</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>1973</v>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4127</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2331</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,40 +2410,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3057</v>
+        <v>2786</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2589</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>10673</v>
-      </c>
-      <c r="J7" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>2469</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2073</v>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2283</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,40 +2442,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4139</v>
+        <v>4541</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2152</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1984</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1891</v>
-      </c>
-      <c r="J8" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>3671</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>1791</v>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>3613</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>2029</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,40 +2474,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4715</v>
+        <v>5563</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2215</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>2613</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>4016</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>1814</v>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4349</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>2266</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,40 +2506,28 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4970</v>
+        <v>5754</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2213</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>2913</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1921</v>
-      </c>
-      <c r="J10" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>4272</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>1808</v>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>4633</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>2240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,40 +2538,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>5187</v>
+        <v>5800</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2198</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>3346</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1924</v>
-      </c>
-      <c r="J11" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>4243</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>1806</v>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>4639</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>2109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,40 +2570,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>5158</v>
+        <v>5975</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2218</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>3889</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1939</v>
-      </c>
-      <c r="J12" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>4302</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>1824</v>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>4771</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>2126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,40 +2602,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3704</v>
+        <v>3905</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2235</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>3456</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>2529</v>
-      </c>
-      <c r="J13" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>3015</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>1866</v>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>3065</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2078</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,40 +2634,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3775</v>
+        <v>3862</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2210</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>3005</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>2571</v>
-      </c>
-      <c r="J14" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>3106</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>1831</v>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>3049</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>2064</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,40 +2666,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4220</v>
+        <v>3972</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2181</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>2571</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>2502</v>
-      </c>
-      <c r="J15" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>3393</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>1783</v>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>2998</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1943</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,43 +2695,31 @@
         <v>26</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>3952</v>
+        <v>4270</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.9333</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2311</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>0.8667</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1146</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>0.8667</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>2660</v>
-      </c>
-      <c r="J16" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="3" t="n">
-        <v>0.8667</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>3138</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>1802</v>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>2777</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1908</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,40 +2730,28 @@
         <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>6565</v>
+        <v>9788</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2350</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>2469</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>2892</v>
-      </c>
-      <c r="J17" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>5520</v>
-      </c>
-      <c r="M17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>1983</v>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>5591</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2670</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,40 +2762,28 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>5836</v>
+        <v>6198</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>3560</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0.5667</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>2146</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>6272</v>
-      </c>
-      <c r="J18" s="1" t="s">
+        <v>4522</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>4487</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>2726</v>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4333</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2888</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,40 +2794,28 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>6451</v>
+        <v>5656</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>3825</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1356</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>13118</v>
-      </c>
-      <c r="J19" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>3760</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>2696</v>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>3764</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2882</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,40 +2826,28 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>4390</v>
+        <v>4695</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2289</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1865</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>2786</v>
-      </c>
-      <c r="J20" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>3706</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>1956</v>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>3770</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>2093</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,40 +2858,28 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>13046</v>
+        <v>14138</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2891</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>7454</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>3558</v>
-      </c>
-      <c r="J21" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>10564</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>2650</v>
+      <c r="G21" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>11831</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>3864</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,40 +2890,28 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>8253</v>
+        <v>7201</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>5015</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>3679</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>16563</v>
-      </c>
-      <c r="J22" s="1" t="s">
+        <v>4093</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>6521</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>4307</v>
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>5843</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>3483</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,40 +2922,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>38854</v>
+        <v>37825</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>20671</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>18145</v>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>67121</v>
-      </c>
-      <c r="J23" s="1" t="s">
+        <v>19871</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>31390</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>16259</v>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>31004</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>16720</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,40 +2954,28 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>17319</v>
+        <v>14460</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10214</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>7291</v>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>40732</v>
-      </c>
-      <c r="J24" s="1" t="s">
+        <v>8395</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>13367</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>8416</v>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>11610</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>7123</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,40 +2986,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>5394</v>
+        <v>5796</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>3296</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1941</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>10009</v>
-      </c>
-      <c r="J25" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>4247</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>2640</v>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>4594</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>2648</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,40 +3018,28 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>49208</v>
+        <v>112912</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>5322</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>28905</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>0.9667</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>6221</v>
-      </c>
-      <c r="J26" s="1" t="s">
+        <v>14020</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>38143</v>
-      </c>
-      <c r="M26" s="3" t="n">
-        <v>0.9667</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>3451</v>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>61274</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>12414</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,40 +3050,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>29762</v>
+        <v>52617</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>4604</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>16560</v>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>0.9333</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>5802</v>
-      </c>
-      <c r="J27" s="1" t="s">
+        <v>6997</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>21786</v>
-      </c>
-      <c r="M27" s="3" t="n">
-        <v>0.9667</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>2606</v>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>30282</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>6160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,40 +3082,28 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>34644</v>
+        <v>54908</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>3341</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>18182</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>4746</v>
-      </c>
-      <c r="J28" s="1" t="s">
+        <v>6014</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>26475</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>2785</v>
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>30515</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>4996</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,43 +3111,31 @@
         <v>39</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>7337</v>
+        <v>10134</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2986</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>4198</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>3664</v>
-      </c>
-      <c r="J29" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>6211</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>0.9667</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>2132</v>
+      <c r="G29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>7040</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>3292</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,40 +3146,28 @@
         <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>7664</v>
+        <v>10043</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2572</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>3984</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>4338</v>
-      </c>
-      <c r="J30" s="1" t="s">
+        <v>4016</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>6289</v>
-      </c>
-      <c r="M30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>2083</v>
+      <c r="G30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>6988</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>3291</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,40 +3178,28 @@
         <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>8056</v>
+        <v>12365</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>3147</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>3759</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>0.9667</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>3632</v>
-      </c>
-      <c r="J31" s="1" t="s">
+        <v>4156</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>6307</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>0.9667</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>2226</v>
+      <c r="G31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>6986</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>3250</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,40 +3210,28 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>7431</v>
+        <v>8599</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>3238</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>0.8667</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>2203</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>5673</v>
-      </c>
-      <c r="J32" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>5776</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>0.9667</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>2551</v>
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>6134</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>2637</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,40 +3242,28 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>5199</v>
+        <v>5703</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>0.8667</v>
+        <v>0.9667</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>3585</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>3589</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>5662</v>
-      </c>
-      <c r="J33" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="3" t="n">
-        <v>0.9333</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>4260</v>
-      </c>
-      <c r="M33" s="3" t="n">
-        <v>0.8667</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>2250</v>
+      <c r="G33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>4558</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>2336</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,43 +3271,31 @@
         <v>44</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.9333</v>
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>9077</v>
+        <v>10052</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.9</v>
+        <v>0.9667</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>3932</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>3589</v>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>0.9333</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>9515</v>
-      </c>
-      <c r="J34" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="3" t="n">
-        <v>0.9667</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>7108</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>2889</v>
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>7424</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>2833</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,43 +3303,31 @@
         <v>45</v>
       </c>
       <c r="B35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>6778</v>
+      </c>
+      <c r="D35" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>5649</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>0.7333</v>
-      </c>
       <c r="E35" s="0" t="n">
-        <v>3800</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>2654</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>7469</v>
-      </c>
-      <c r="J35" s="1" t="s">
+        <v>4191</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K35" s="3" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>4668</v>
-      </c>
-      <c r="M35" s="3" t="n">
-        <v>0.5667</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>2448</v>
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>5055</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>0.6333</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>2370</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,40 +3338,28 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>5875</v>
+        <v>7775</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>2710</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>3654</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>3585</v>
-      </c>
-      <c r="J36" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>5220</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>2350</v>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>6044</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>3244</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,40 +3370,28 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>7305</v>
+        <v>10082</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2900</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>6128</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>3632</v>
-      </c>
-      <c r="J37" s="1" t="s">
+        <v>3742</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>6945</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>2475</v>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>8096</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>3151</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,40 +3402,28 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>9942</v>
+        <v>12949</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>3200</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>10663</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>4566</v>
-      </c>
-      <c r="J38" s="1" t="s">
+        <v>3746</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>9230</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>3099</v>
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>10254</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>3086</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,40 +3434,28 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>15325</v>
+        <v>21111</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>5384</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>26807</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>6702</v>
-      </c>
-      <c r="J39" s="1" t="s">
+        <v>7390</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>14425</v>
-      </c>
-      <c r="M39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>4825</v>
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>16516</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>5133</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,40 +3466,28 @@
         <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>5604</v>
+        <v>6597</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>4168</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>2171</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>3953</v>
-      </c>
-      <c r="J40" s="1" t="s">
+        <v>6276</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>3731</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>2910</v>
+      <c r="G40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>4912</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>3349</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,91 +3498,1439 @@
         <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>5253</v>
+        <v>9306</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>4472</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>3006</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>5176</v>
-      </c>
-      <c r="J41" s="1" t="s">
+        <v>6507</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>4820</v>
-      </c>
-      <c r="M41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>3672</v>
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>6409</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>3787</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="n">
         <f aca="false">AVERAGE(B2:B41)</f>
-        <v>0.9908325</v>
+        <v>0.9991675</v>
       </c>
       <c r="C42" s="6" t="n">
         <f aca="false">SUM(C2:C41)</f>
-        <v>392427</v>
+        <v>537042</v>
       </c>
       <c r="D42" s="5" t="n">
         <f aca="false">AVERAGE(D2:D41)</f>
-        <v>0.983335</v>
+        <v>0.993335</v>
       </c>
       <c r="E42" s="6" t="n">
         <f aca="false">SUM(E2:E41)</f>
-        <v>149470</v>
-      </c>
-      <c r="F42" s="5" t="n">
-        <f aca="false">AVERAGE(F2:F41)</f>
-        <v>0.9558375</v>
-      </c>
-      <c r="G42" s="6" t="n">
-        <f aca="false">SUM(G2:G41)</f>
-        <v>228968</v>
-      </c>
-      <c r="H42" s="5" t="n">
-        <f aca="false">AVERAGE(H2:H41)</f>
-        <v>0.9866675</v>
-      </c>
-      <c r="I42" s="6" t="n">
-        <f aca="false">SUM(I2:I41)</f>
-        <v>297437</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <f aca="false">AVERAGE(K2:K41)</f>
+        <v>184639</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <f aca="false">AVERAGE(G2:G41)</f>
+        <v>0.9991675</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <f aca="false">SUM(H2:H41)</f>
+        <v>363060</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <f aca="false">AVERAGE(I2:I41)</f>
+        <v>0.9816675</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <f aca="false">SUM(J2:J41)</f>
+        <v>143366</v>
+      </c>
+      <c r="AMG42" s="0"/>
+      <c r="AMH42" s="0"/>
+      <c r="AMI42" s="0"/>
+      <c r="AMJ42" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;KffffffΣελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J42" activeCellId="0" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6757</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3003</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5209</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6207</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2845</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>4856</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4435</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2564</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>3443</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>9342</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3230</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>7057</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5004</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2577</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3825</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2464</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2478</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>4543</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2315</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>3675</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5290</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2389</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4020</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5504</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2385</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>4278</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5526</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2326</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>4236</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5659</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2312</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>4296</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3921</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2321</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>3024</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3958</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2333</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>3099</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4266</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2339</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>3401</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4465</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2571</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>3088</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>7625</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2799</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>5265</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5915</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3641</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4489</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5874</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>4325</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>3769</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>4675</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2425</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>3705</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>13825</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>10573</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>7234</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4021</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>6501</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>38897</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>18691</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>30682</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>17497</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>15358</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>9154</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>13475</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>5844</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>3146</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>76367</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>8587</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>36517</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>41591</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>5512</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>22055</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>55800</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>4002</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>24478</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>8538</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>3495</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>6233</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>8732</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>3528</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>6270</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>9721</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>3353</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>6534</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>7992</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>3881</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>5893</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>5515</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3157</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>4271</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>9666</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4066</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>7122</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>5990</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>3315</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>4680</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>7063</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>3004</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>5229</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>9331</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2857</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>6963</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>12207</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>3290</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>9219</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>19239</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>6450</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>14478</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>5855</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>4451</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>3957</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>8284</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>5543</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>4717</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="5" t="n">
+        <f aca="false">AVERAGE(B2:B41)</f>
+        <v>0.993335</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <f aca="false">SUM(C2:C41)</f>
+        <v>475015</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <f aca="false">AVERAGE(D2:D41)</f>
         <v>0.99</v>
       </c>
-      <c r="L42" s="6" t="n">
-        <f aca="false">SUM(L2:L41)</f>
-        <v>314952</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <f aca="false">AVERAGE(M2:M41)</f>
-        <v>0.9666725</v>
-      </c>
-      <c r="N42" s="6" t="n">
-        <f aca="false">SUM(N2:N41)</f>
-        <v>117896</v>
-      </c>
+      <c r="E42" s="6" t="n">
+        <f aca="false">SUM(E2:E41)</f>
+        <v>158367</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <f aca="false">AVERAGE(G2:G41)</f>
+        <v>0.989165</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <f aca="false">SUM(H2:H41)</f>
+        <v>311420</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <f aca="false">AVERAGE(I2:I41)</f>
+        <v>0.9783325</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <f aca="false">SUM(J2:J41)</f>
+        <v>122742</v>
+      </c>
+      <c r="AMG42" s="0"/>
+      <c r="AMH42" s="0"/>
+      <c r="AMI42" s="0"/>
+      <c r="AMJ42" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
